--- a/Estructuras/Cartas/Detalle/Estructura_CD.xlsx
+++ b/Estructuras/Cartas/Detalle/Estructura_CD.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Documento_Express\Estructuras\Cartas\Detalle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6D36DC-F63F-4E4C-9503-9FE6B04F7F86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8C117F-C1C9-4DBE-9F6F-58523D2AE677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{A95229EC-EF07-4CA8-AE26-A98BC06D784B}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
-    <sheet name="DETALLES" sheetId="2" r:id="rId2"/>
+    <sheet name="LISTA" sheetId="3" r:id="rId2"/>
+    <sheet name="TABLA" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Numero de identificacion</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>Telefono</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
   </si>
 </sst>
 </file>
@@ -65,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +82,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,22 +471,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169953BE-4C50-442F-9186-D968B7FAAE30}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620ED28E-D427-429F-B6F0-B1BC1DF8F5C1}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169953BE-4C50-442F-9186-D968B7FAAE30}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>